--- a/posts/A8-NetworkData/Networks.xlsx
+++ b/posts/A8-NetworkData/Networks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barrierobison/Documents/GitHub/RobisonWeb/BCB520/posts/A8-NetworkData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barrierobison/Documents/GitHub/BCB520/posts/A8-NetworkData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F795C7-6BA6-1144-8539-003EEEBC262D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CD767A-2B7E-784E-AD13-E63382031E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9560" yWindow="2040" windowWidth="28040" windowHeight="17440" xr2:uid="{D55B007D-706C-234F-A5C0-D6FBD26AED6F}"/>
+    <workbookView xWindow="7800" yWindow="2040" windowWidth="28040" windowHeight="17440" xr2:uid="{D55B007D-706C-234F-A5C0-D6FBD26AED6F}"/>
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>name</t>
   </si>
@@ -81,9 +81,6 @@
     <t>EPPN</t>
   </si>
   <si>
-    <t>CS</t>
-  </si>
-  <si>
     <t>Professor</t>
   </si>
   <si>
@@ -103,6 +100,42 @@
   </si>
   <si>
     <t>BCB520</t>
+  </si>
+  <si>
+    <t>Ed</t>
+  </si>
+  <si>
+    <t>Geraline</t>
+  </si>
+  <si>
+    <t>Konrad</t>
+  </si>
+  <si>
+    <t>Robyn</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Heidi</t>
+  </si>
+  <si>
+    <t>Ymin</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>CNR</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Yaotian</t>
+  </si>
+  <si>
+    <t>Plants</t>
   </si>
 </sst>
 </file>
@@ -165,9 +198,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -205,7 +238,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -311,7 +344,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -453,7 +486,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -464,7 +497,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -480,7 +513,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -491,7 +524,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -499,13 +532,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -519,7 +552,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -527,27 +560,27 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -555,13 +588,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -569,13 +602,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -583,13 +616,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -597,13 +630,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -611,6 +644,18 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -657,13 +702,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">

--- a/posts/A8-NetworkData/Networks.xlsx
+++ b/posts/A8-NetworkData/Networks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barrierobison/Documents/GitHub/BCB520/posts/A8-NetworkData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CD767A-2B7E-784E-AD13-E63382031E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCF2181-AEAA-E046-A329-B1122AD1586B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7800" yWindow="2040" windowWidth="28040" windowHeight="17440" xr2:uid="{D55B007D-706C-234F-A5C0-D6FBD26AED6F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
     <t>name</t>
   </si>
@@ -51,30 +51,9 @@
     <t>Barrie</t>
   </si>
   <si>
-    <t>Shirley</t>
-  </si>
-  <si>
     <t>Scott</t>
   </si>
   <si>
-    <t>Marshall</t>
-  </si>
-  <si>
-    <t>Jill</t>
-  </si>
-  <si>
-    <t>Cody</t>
-  </si>
-  <si>
-    <t>Erick</t>
-  </si>
-  <si>
-    <t>Jiyin</t>
-  </si>
-  <si>
-    <t>Ronald</t>
-  </si>
-  <si>
     <t>Biology</t>
   </si>
   <si>
@@ -84,9 +63,6 @@
     <t>Professor</t>
   </si>
   <si>
-    <t>Assoc Prof</t>
-  </si>
-  <si>
     <t>Graduate</t>
   </si>
   <si>
@@ -123,9 +99,6 @@
     <t>Ymin</t>
   </si>
   <si>
-    <t>Family</t>
-  </si>
-  <si>
     <t>CNR</t>
   </si>
   <si>
@@ -135,7 +108,13 @@
     <t>Yaotian</t>
   </si>
   <si>
-    <t>Plants</t>
+    <t>Jian</t>
+  </si>
+  <si>
+    <t>FCS</t>
+  </si>
+  <si>
+    <t>PlantSci</t>
   </si>
 </sst>
 </file>
@@ -496,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB325E7-BE45-DC4E-9C1A-C0C2714BFB09}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -513,7 +492,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -521,10 +500,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -532,13 +511,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -546,13 +525,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -560,13 +539,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -574,13 +553,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -588,13 +567,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -602,13 +581,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -616,13 +595,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -630,13 +609,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -645,13 +624,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -659,6 +638,18 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -695,28 +686,28 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -724,10 +715,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -735,10 +726,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -746,10 +737,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
